--- a/elevation_power_plot_template.xlsx
+++ b/elevation_power_plot_template.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="6">
   <si>
     <t>azimuth</t>
   </si>
@@ -641,7 +641,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Elevation vs. Power @Azimuth</a:t>
+              <a:t>gain vs elevation @Azimuth</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -685,7 +685,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -711,19 +711,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3905,7 +3893,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3915,11 +3903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137157256"/>
-        <c:axId val="137159216"/>
+        <c:axId val="287099016"/>
+        <c:axId val="287392208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137157256"/>
+        <c:axId val="287099016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,12 +3964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137159216"/>
+        <c:crossAx val="287392208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137159216"/>
+        <c:axId val="287392208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-15"/>
@@ -4039,7 +4027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137157256"/>
+        <c:crossAx val="287099016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4125,7 +4113,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Elevation vs. Power @Azimuth == 90 &amp; 270</a:t>
+              <a:t>Gain vs elevation @Azimuth == 90 &amp; 270</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -4167,7 +4155,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4193,19 +4181,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7573,7 +7549,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7583,11 +7559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137160392"/>
-        <c:axId val="137160000"/>
+        <c:axId val="288531104"/>
+        <c:axId val="288432616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137160392"/>
+        <c:axId val="288531104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7644,12 +7620,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137160000"/>
+        <c:crossAx val="288432616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137160000"/>
+        <c:axId val="288432616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7706,7 +7682,501 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137160392"/>
+        <c:crossAx val="288531104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gain vs frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> where azimuth &amp; elevation == 0 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-10.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.47</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="287809392"/>
+        <c:axId val="287807432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="287809392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287807432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="287807432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287809392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7796,6 +8266,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8867,23 +9377,539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="frequency"/>
@@ -8900,7 +9926,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8910,7 +9936,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8237220" y="579120"/>
+              <a:off x="10858500" y="525780"/>
               <a:ext cx="1828800" cy="3589020"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8944,13 +9970,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>1108</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -8979,13 +10005,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -9017,7 +10043,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10713720" y="381000"/>
+              <a:off x="11071860" y="381000"/>
               <a:ext cx="1828800" cy="3886200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9051,19 +10077,54 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>525780</xdr:colOff>
       <xdr:row>1109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9103,13 +10164,13 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="frequency" cache="Slicer_frequency" caption="frequency" rowHeight="234950"/>
+  <slicer name="frequency" cache="Slicer_frequency" caption="frequency" startItem="15" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="frequency 1" cache="Slicer_frequency1" caption="frequency" rowHeight="234950"/>
+  <slicer name="frequency 1" cache="Slicer_frequency1" caption="frequency" startItem="19" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -9407,7 +10468,7 @@
   <dimension ref="A1:E528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18412,7 +19473,7 @@
   <dimension ref="A1:E559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1106" sqref="N1106"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27943,12 +29004,560 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-10.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-5.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-9.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-10.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-14.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-16.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-16.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-9.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-7.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-2.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>78</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>79</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>83</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-2.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-3.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>88</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-6.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-5.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1.67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/elevation_power_plot_template.xlsx
+++ b/elevation_power_plot_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18432" windowHeight="6192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18432" windowHeight="6192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -3903,11 +3903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="287099016"/>
-        <c:axId val="287392208"/>
+        <c:axId val="529908432"/>
+        <c:axId val="529909608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="287099016"/>
+        <c:axId val="529908432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,6 +3927,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elevation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3964,12 +4020,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287392208"/>
+        <c:crossAx val="529909608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="287392208"/>
+        <c:axId val="529909608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-15"/>
@@ -3990,6 +4046,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4027,7 +4139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287099016"/>
+        <c:crossAx val="529908432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7559,11 +7671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288531104"/>
-        <c:axId val="288432616"/>
+        <c:axId val="529911568"/>
+        <c:axId val="529911960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288531104"/>
+        <c:axId val="529911568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7583,6 +7695,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>elevation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7620,12 +7788,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288432616"/>
+        <c:crossAx val="529911960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288432616"/>
+        <c:axId val="529911960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7645,6 +7813,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>gain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7682,7 +7906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288531104"/>
+        <c:crossAx val="529911568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8052,14 +8276,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="287809392"/>
-        <c:axId val="287807432"/>
+        <c:axId val="529912352"/>
+        <c:axId val="529912744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="287809392"/>
+        <c:axId val="529912352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="55"/>
+          <c:max val="90"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8077,6 +8302,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8114,12 +8395,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287807432"/>
+        <c:crossAx val="529912744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="287807432"/>
+        <c:axId val="529912744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8139,6 +8420,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8176,7 +8513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287809392"/>
+        <c:crossAx val="529912352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9908,8 +10245,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="frequency"/>
@@ -9926,7 +10263,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10015,8 +10352,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="frequency 1"/>
@@ -10033,7 +10370,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10467,8 +10804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1110" sqref="K1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19472,7 +19809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E559"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -29007,7 +29344,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/elevation_power_plot_template.xlsx
+++ b/elevation_power_plot_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1935,11 +1935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="507302008"/>
-        <c:axId val="507301616"/>
+        <c:axId val="228058480"/>
+        <c:axId val="228058872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="507302008"/>
+        <c:axId val="228058480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,12 +2052,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507301616"/>
+        <c:crossAx val="228058872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507301616"/>
+        <c:axId val="228058872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-15"/>
@@ -2171,7 +2171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507302008"/>
+        <c:crossAx val="228058480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2332,7 +2332,7 @@
               <c:f>Sheet2!$B$2:$B$741</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="740"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>-80</c:v>
                 </c:pt>
@@ -2386,549 +2386,6 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-80</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,603 +2395,60 @@
               <c:f>Sheet2!$E$2:$E$741</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="740"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-16.809999999999999</c:v>
+                  <c:v>-22.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.32</c:v>
+                  <c:v>-19.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.24</c:v>
+                  <c:v>-18.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.75</c:v>
+                  <c:v>-12.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>-6.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7899999999999991</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.85</c:v>
+                  <c:v>7.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.03</c:v>
+                  <c:v>15.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.12</c:v>
+                  <c:v>17.89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.13</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.309999999999999</c:v>
+                  <c:v>13.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.82</c:v>
+                  <c:v>6.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.03</c:v>
+                  <c:v>-1.84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.56</c:v>
+                  <c:v>-7.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.47</c:v>
+                  <c:v>-14.96</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.1999999999999993</c:v>
+                  <c:v>-19.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-16.170000000000002</c:v>
+                  <c:v>-20.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-19.690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-22.23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-18.09</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-11.87</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-6.59</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18.22</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16.61</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-4.12</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-8.43</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-13.16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-20.38</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-24.38</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-25.07</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-21.73</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-13.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-7.97</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-4.51</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.74</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16.41</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>18.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>18.82</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14.81</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.83</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-6.42</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-9.9600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-15.46</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-24.04</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-25.58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-28.58</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-23.71</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-15.69</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-9.7100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-5.86</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.69</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>18.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17.87</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>14.02</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.72</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-8.33</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-11.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-17.63</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-26.1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-28.29</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-26.31</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-24.75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-17.28</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-10.82</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-7.84</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.84</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.14</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>15.38</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>17.77</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>17.68</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>13.86</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-0.44</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-9.3800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-12.36</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-20.13</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-25.12</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-28.22</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-27.17</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-25.7</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-20.74</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-11.05</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-8.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>7.86</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>17.55</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>17.440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>13.37</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5.98</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-1.03</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-9.7799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-12.13</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-21.88</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-26.84</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-25.5</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-24.14</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-23.31</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-19.29</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-11.16</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-6.74</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>8.39</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>15.51</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>18.03</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6.42</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-8.84</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-13.42</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-21.16</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-22.57</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-26.71</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-19.62</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-19.45</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-19.09</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-11.46</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-5.98</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>8.64</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>15.83</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>18.34</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>13.99</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>6.81</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-7.47</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-12.9</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-19.14</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-23</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-25.89</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-19.52</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-19.04</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-19.07</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-12.02</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-5.16</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2.14</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>8.91</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>18.579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>18.53</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>14.26</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6.97</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-0.33</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-6.61</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-15.26</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-20.34</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-20.71</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-23.53</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-22.49</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-19.23</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-18.53</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-12.3</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-6.27</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>7.96</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>15.15</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>17.89</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>13.47</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6.36</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-1.84</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-7.16</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-14.96</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-19.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-20.079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="179">
                   <c:v>-25.68</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-20.03</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-20.5</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-18.63</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-11.78</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-7.54</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1.22</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>8.36</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>15.56</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>18.28</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>18.16</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>13.77</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-1.69</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>-7.94</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-14.44</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>-17.79</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-20.45</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-21.25</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-26.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="507302400"/>
-        <c:axId val="507302792"/>
+        <c:axId val="228055736"/>
+        <c:axId val="228056128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="507302400"/>
+        <c:axId val="228055736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,12 +2580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507302792"/>
+        <c:crossAx val="228056128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507302792"/>
+        <c:axId val="228056128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3784,7 +2698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507302400"/>
+        <c:crossAx val="228055736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3998,11 +2912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="509840240"/>
-        <c:axId val="509843376"/>
+        <c:axId val="230379864"/>
+        <c:axId val="230376728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="509840240"/>
+        <c:axId val="230379864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -4117,12 +3031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509843376"/>
+        <c:crossAx val="230376728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="509843376"/>
+        <c:axId val="230376728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,7 +3149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509840240"/>
+        <c:crossAx val="230379864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6026,7 +4940,7 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
@@ -6036,13 +4950,15 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>780</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6065,13 +4981,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>745</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -6133,7 +5049,7 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -6143,13 +5059,15 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>750</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>749</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6168,23 +5086,25 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6249,7 +5169,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E741" totalsRowShown="0">
-  <autoFilter ref="A1:E741"/>
+  <autoFilter ref="A1:E741">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="69"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="azimuth"/>
     <tableColumn id="2" name="elevation"/>
@@ -6526,7 +5452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
@@ -9953,10 +8879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E741"/>
   <sheetViews>
-    <sheetView topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="A559" sqref="A201:XFD559"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P559" sqref="P559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9983,7 +8909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>270</v>
       </c>
@@ -10000,7 +8926,7 @@
         <v>-16.809999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>270</v>
       </c>
@@ -10017,7 +8943,7 @@
         <v>-15.32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>270</v>
       </c>
@@ -10034,7 +8960,7 @@
         <v>-8.24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>270</v>
       </c>
@@ -10051,7 +8977,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>270</v>
       </c>
@@ -10068,7 +8994,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>270</v>
       </c>
@@ -10085,7 +9011,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>270</v>
       </c>
@@ -10102,7 +9028,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>270</v>
       </c>
@@ -10119,7 +9045,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>90</v>
       </c>
@@ -10136,7 +9062,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>270</v>
       </c>
@@ -10153,7 +9079,7 @@
         <v>24.13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>90</v>
       </c>
@@ -10170,7 +9096,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>90</v>
       </c>
@@ -10187,7 +9113,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>90</v>
       </c>
@@ -10204,7 +9130,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>90</v>
       </c>
@@ -10221,7 +9147,7 @@
         <v>-1.56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>90</v>
       </c>
@@ -10238,7 +9164,7 @@
         <v>-5.47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>90</v>
       </c>
@@ -10255,7 +9181,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>90</v>
       </c>
@@ -10272,7 +9198,7 @@
         <v>-16.170000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>90</v>
       </c>
@@ -10289,7 +9215,7 @@
         <v>-19.690000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>270</v>
       </c>
@@ -10306,7 +9232,7 @@
         <v>-22.23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>270</v>
       </c>
@@ -10323,7 +9249,7 @@
         <v>-18.09</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>270</v>
       </c>
@@ -10340,7 +9266,7 @@
         <v>-11.87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>270</v>
       </c>
@@ -10357,7 +9283,7 @@
         <v>-6.59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>270</v>
       </c>
@@ -10374,7 +9300,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>270</v>
       </c>
@@ -10391,7 +9317,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>270</v>
       </c>
@@ -10408,7 +9334,7 @@
         <v>11.23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>270</v>
       </c>
@@ -10425,7 +9351,7 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>90</v>
       </c>
@@ -10442,7 +9368,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>270</v>
       </c>
@@ -10459,7 +9385,7 @@
         <v>20.27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>90</v>
       </c>
@@ -10476,7 +9402,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>90</v>
       </c>
@@ -10493,7 +9419,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>90</v>
       </c>
@@ -10510,7 +9436,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>90</v>
       </c>
@@ -10527,7 +9453,7 @@
         <v>-4.12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -10544,7 +9470,7 @@
         <v>-8.43</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>90</v>
       </c>
@@ -10561,7 +9487,7 @@
         <v>-13.16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>90</v>
       </c>
@@ -10578,7 +9504,7 @@
         <v>-20.38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>90</v>
       </c>
@@ -10595,7 +9521,7 @@
         <v>-24.38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>270</v>
       </c>
@@ -10612,7 +9538,7 @@
         <v>-25.07</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>270</v>
       </c>
@@ -10629,7 +9555,7 @@
         <v>-21.73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>270</v>
       </c>
@@ -10646,7 +9572,7 @@
         <v>-13.39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>270</v>
       </c>
@@ -10663,7 +9589,7 @@
         <v>-7.97</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>270</v>
       </c>
@@ -10680,7 +9606,7 @@
         <v>-4.51</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>270</v>
       </c>
@@ -10697,7 +9623,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>270</v>
       </c>
@@ -10714,7 +9640,7 @@
         <v>9.74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>270</v>
       </c>
@@ -10731,7 +9657,7 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>90</v>
       </c>
@@ -10748,7 +9674,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>270</v>
       </c>
@@ -10765,7 +9691,7 @@
         <v>18.82</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>90</v>
       </c>
@@ -10782,7 +9708,7 @@
         <v>14.81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>90</v>
       </c>
@@ -10799,7 +9725,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>90</v>
       </c>
@@ -10816,7 +9742,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>90</v>
       </c>
@@ -10833,7 +9759,7 @@
         <v>-6.42</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>90</v>
       </c>
@@ -10850,7 +9776,7 @@
         <v>-9.9600000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>90</v>
       </c>
@@ -10867,7 +9793,7 @@
         <v>-15.46</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>90</v>
       </c>
@@ -10884,7 +9810,7 @@
         <v>-24.04</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>90</v>
       </c>
@@ -10901,7 +9827,7 @@
         <v>-25.58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>270</v>
       </c>
@@ -10918,7 +9844,7 @@
         <v>-28.58</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>270</v>
       </c>
@@ -10935,7 +9861,7 @@
         <v>-23.71</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>270</v>
       </c>
@@ -10952,7 +9878,7 @@
         <v>-15.69</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>270</v>
       </c>
@@ -10969,7 +9895,7 @@
         <v>-9.7100000000000009</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>270</v>
       </c>
@@ -10986,7 +9912,7 @@
         <v>-5.86</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>270</v>
       </c>
@@ -11003,7 +9929,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>270</v>
       </c>
@@ -11020,7 +9946,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>270</v>
       </c>
@@ -11037,7 +9963,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>90</v>
       </c>
@@ -11054,7 +9980,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>270</v>
       </c>
@@ -11071,7 +9997,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>90</v>
       </c>
@@ -11088,7 +10014,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>90</v>
       </c>
@@ -11105,7 +10031,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>90</v>
       </c>
@@ -11122,7 +10048,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>90</v>
       </c>
@@ -11139,7 +10065,7 @@
         <v>-8.33</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>90</v>
       </c>
@@ -11156,7 +10082,7 @@
         <v>-11.25</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>90</v>
       </c>
@@ -11173,7 +10099,7 @@
         <v>-17.63</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>90</v>
       </c>
@@ -11190,7 +10116,7 @@
         <v>-26.1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>90</v>
       </c>
@@ -11207,7 +10133,7 @@
         <v>-28.29</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>270</v>
       </c>
@@ -11224,7 +10150,7 @@
         <v>-26.31</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>270</v>
       </c>
@@ -11241,7 +10167,7 @@
         <v>-24.75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>270</v>
       </c>
@@ -11258,7 +10184,7 @@
         <v>-17.28</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>270</v>
       </c>
@@ -11275,7 +10201,7 @@
         <v>-10.82</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>270</v>
       </c>
@@ -11292,7 +10218,7 @@
         <v>-7.84</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>270</v>
       </c>
@@ -11309,7 +10235,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>270</v>
       </c>
@@ -11326,7 +10252,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>270</v>
       </c>
@@ -11343,7 +10269,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>90</v>
       </c>
@@ -11360,7 +10286,7 @@
         <v>17.77</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>270</v>
       </c>
@@ -11377,7 +10303,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>90</v>
       </c>
@@ -11394,7 +10320,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>90</v>
       </c>
@@ -11411,7 +10337,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>90</v>
       </c>
@@ -11428,7 +10354,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>90</v>
       </c>
@@ -11445,7 +10371,7 @@
         <v>-9.3800000000000008</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>90</v>
       </c>
@@ -11462,7 +10388,7 @@
         <v>-12.36</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>90</v>
       </c>
@@ -11479,7 +10405,7 @@
         <v>-20.13</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>90</v>
       </c>
@@ -11496,7 +10422,7 @@
         <v>-25.12</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -11513,7 +10439,7 @@
         <v>-28.22</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>270</v>
       </c>
@@ -11530,7 +10456,7 @@
         <v>-27.17</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>270</v>
       </c>
@@ -11547,7 +10473,7 @@
         <v>-25.7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>270</v>
       </c>
@@ -11564,7 +10490,7 @@
         <v>-20.74</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>270</v>
       </c>
@@ -11581,7 +10507,7 @@
         <v>-11.05</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>270</v>
       </c>
@@ -11598,7 +10524,7 @@
         <v>-8.2100000000000009</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>270</v>
       </c>
@@ -11615,7 +10541,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>270</v>
       </c>
@@ -11632,7 +10558,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>270</v>
       </c>
@@ -11649,7 +10575,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>90</v>
       </c>
@@ -11666,7 +10592,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>270</v>
       </c>
@@ -11683,7 +10609,7 @@
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>90</v>
       </c>
@@ -11700,7 +10626,7 @@
         <v>13.37</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>90</v>
       </c>
@@ -11717,7 +10643,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>90</v>
       </c>
@@ -11734,7 +10660,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>90</v>
       </c>
@@ -11751,7 +10677,7 @@
         <v>-9.7799999999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>90</v>
       </c>
@@ -11768,7 +10694,7 @@
         <v>-12.13</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>90</v>
       </c>
@@ -11785,7 +10711,7 @@
         <v>-21.88</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>90</v>
       </c>
@@ -11802,7 +10728,7 @@
         <v>-26.84</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>90</v>
       </c>
@@ -11819,7 +10745,7 @@
         <v>-25.5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>270</v>
       </c>
@@ -11836,7 +10762,7 @@
         <v>-24.14</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>270</v>
       </c>
@@ -11853,7 +10779,7 @@
         <v>-23.31</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>270</v>
       </c>
@@ -11870,7 +10796,7 @@
         <v>-19.29</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>270</v>
       </c>
@@ -11887,7 +10813,7 @@
         <v>-11.16</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>270</v>
       </c>
@@ -11904,7 +10830,7 @@
         <v>-6.74</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>270</v>
       </c>
@@ -11921,7 +10847,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>270</v>
       </c>
@@ -11938,7 +10864,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>270</v>
       </c>
@@ -11955,7 +10881,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>90</v>
       </c>
@@ -11972,7 +10898,7 @@
         <v>18.03</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>270</v>
       </c>
@@ -11989,7 +10915,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>90</v>
       </c>
@@ -12006,7 +10932,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>90</v>
       </c>
@@ -12023,7 +10949,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>90</v>
       </c>
@@ -12040,7 +10966,7 @@
         <v>-0.52</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>90</v>
       </c>
@@ -12057,7 +10983,7 @@
         <v>-8.84</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>90</v>
       </c>
@@ -12074,7 +11000,7 @@
         <v>-13.42</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>90</v>
       </c>
@@ -12091,7 +11017,7 @@
         <v>-21.16</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>90</v>
       </c>
@@ -12108,7 +11034,7 @@
         <v>-22.57</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>90</v>
       </c>
@@ -12125,7 +11051,7 @@
         <v>-26.71</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>270</v>
       </c>
@@ -12142,7 +11068,7 @@
         <v>-19.62</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>270</v>
       </c>
@@ -12159,7 +11085,7 @@
         <v>-19.45</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>270</v>
       </c>
@@ -12176,7 +11102,7 @@
         <v>-19.09</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>270</v>
       </c>
@@ -12193,7 +11119,7 @@
         <v>-11.46</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>270</v>
       </c>
@@ -12210,7 +11136,7 @@
         <v>-5.98</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>270</v>
       </c>
@@ -12227,7 +11153,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>270</v>
       </c>
@@ -12244,7 +11170,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>270</v>
       </c>
@@ -12261,7 +11187,7 @@
         <v>15.83</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>90</v>
       </c>
@@ -12278,7 +11204,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>270</v>
       </c>
@@ -12295,7 +11221,7 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>90</v>
       </c>
@@ -12312,7 +11238,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>90</v>
       </c>
@@ -12329,7 +11255,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>90</v>
       </c>
@@ -12346,7 +11272,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>90</v>
       </c>
@@ -12363,7 +11289,7 @@
         <v>-7.47</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>90</v>
       </c>
@@ -12380,7 +11306,7 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>90</v>
       </c>
@@ -12397,7 +11323,7 @@
         <v>-19.14</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>90</v>
       </c>
@@ -12414,7 +11340,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>90</v>
       </c>
@@ -12431,7 +11357,7 @@
         <v>-25.89</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>270</v>
       </c>
@@ -12448,7 +11374,7 @@
         <v>-19.52</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>270</v>
       </c>
@@ -12465,7 +11391,7 @@
         <v>-19.04</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>270</v>
       </c>
@@ -12482,7 +11408,7 @@
         <v>-19.07</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>270</v>
       </c>
@@ -12499,7 +11425,7 @@
         <v>-12.02</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>270</v>
       </c>
@@ -12516,7 +11442,7 @@
         <v>-5.16</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>270</v>
       </c>
@@ -12533,7 +11459,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>270</v>
       </c>
@@ -12550,7 +11476,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>270</v>
       </c>
@@ -12567,7 +11493,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>90</v>
       </c>
@@ -12584,7 +11510,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>270</v>
       </c>
@@ -12601,7 +11527,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>90</v>
       </c>
@@ -12618,7 +11544,7 @@
         <v>14.26</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>90</v>
       </c>
@@ -12635,7 +11561,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>90</v>
       </c>
@@ -12652,7 +11578,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>90</v>
       </c>
@@ -12669,7 +11595,7 @@
         <v>-6.61</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>90</v>
       </c>
@@ -12686,7 +11612,7 @@
         <v>-15.26</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>90</v>
       </c>
@@ -12703,7 +11629,7 @@
         <v>-20.34</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>90</v>
       </c>
@@ -12720,7 +11646,7 @@
         <v>-20.71</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>90</v>
       </c>
@@ -13043,7 +11969,7 @@
         <v>-25.68</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>270</v>
       </c>
@@ -13060,7 +11986,7 @@
         <v>-20.03</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>270</v>
       </c>
@@ -13077,7 +12003,7 @@
         <v>-20.5</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>270</v>
       </c>
@@ -13094,7 +12020,7 @@
         <v>-18.63</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>270</v>
       </c>
@@ -13111,7 +12037,7 @@
         <v>-11.78</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>270</v>
       </c>
@@ -13128,7 +12054,7 @@
         <v>-7.54</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>270</v>
       </c>
@@ -13145,7 +12071,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>270</v>
       </c>
@@ -13162,7 +12088,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>270</v>
       </c>
@@ -13179,7 +12105,7 @@
         <v>15.56</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>90</v>
       </c>
@@ -13196,7 +12122,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>270</v>
       </c>
@@ -13213,7 +12139,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>90</v>
       </c>
@@ -13230,7 +12156,7 @@
         <v>13.77</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>90</v>
       </c>
@@ -13247,7 +12173,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>90</v>
       </c>
@@ -13264,7 +12190,7 @@
         <v>-1.69</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>90</v>
       </c>
@@ -13281,7 +12207,7 @@
         <v>-7.94</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>90</v>
       </c>
@@ -13298,7 +12224,7 @@
         <v>-14.44</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>90</v>
       </c>
@@ -13315,7 +12241,7 @@
         <v>-17.79</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>90</v>
       </c>
@@ -13332,7 +12258,7 @@
         <v>-20.45</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>90</v>
       </c>
@@ -13349,7 +12275,7 @@
         <v>-21.25</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>270</v>
       </c>
@@ -13366,6 +12292,547 @@
         <v>-26.16</v>
       </c>
     </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="319" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="320" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="321" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="322" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="323" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="324" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="325" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="326" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="327" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="328" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="329" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="330" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="331" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="332" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="333" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="334" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="335" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="336" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="337" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="338" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="339" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="340" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="341" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="342" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="343" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="344" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="345" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="346" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="347" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="348" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="349" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="350" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="351" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="352" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="353" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="354" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="355" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="356" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="357" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="358" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="359" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="360" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="361" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="362" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="363" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="364" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="365" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="366" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="367" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="368" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="369" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="370" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="371" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="372" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="373" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="374" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="375" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="376" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="377" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="378" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="379" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="380" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="381" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="382" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="383" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="384" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="385" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="386" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="387" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="388" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="389" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="390" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="391" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="392" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="393" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="394" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="395" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="396" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="397" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="398" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="399" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="400" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="401" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="402" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="403" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="404" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="405" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="406" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="407" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="408" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="409" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="410" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="411" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="412" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="413" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="414" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="415" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="416" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="417" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="418" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="419" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="420" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="421" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="422" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="423" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="424" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="425" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="426" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="427" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="428" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="429" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="430" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="431" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="432" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="433" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="434" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="435" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="436" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="437" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="438" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="439" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="440" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="441" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="442" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="443" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="444" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="445" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="446" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="447" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="448" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="449" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="450" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="451" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="452" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="453" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="454" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="455" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="456" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="457" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="458" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="459" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="460" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="461" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="462" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="463" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="464" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="465" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="466" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="467" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="468" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="469" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="470" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="471" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="472" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="473" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="474" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="475" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="476" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="477" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="478" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="479" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="480" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="481" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="482" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="483" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="484" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="485" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="486" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="487" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="488" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="489" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="490" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="491" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="492" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="493" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="494" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="495" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="496" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="497" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="498" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="499" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="500" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="501" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="502" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="503" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="504" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="505" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="506" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="507" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="508" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="509" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="510" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="511" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="512" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="513" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="514" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="515" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="516" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="517" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="518" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="519" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="520" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="521" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="522" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="523" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="524" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="525" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="526" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="527" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="528" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="529" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="530" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="531" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="532" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="533" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="534" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="535" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="536" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="537" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="538" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="539" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="540" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="541" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="542" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="543" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="544" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="545" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="546" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="547" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="548" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="549" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="550" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="551" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="552" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="553" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="554" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="555" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="556" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="557" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="558" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="559" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="560" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="561" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="562" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="563" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="564" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="565" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="566" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="567" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="568" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="569" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="570" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="571" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="572" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="573" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="574" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="575" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="576" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="577" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="578" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="579" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="580" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="581" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="582" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="583" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="584" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="585" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="586" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="587" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="588" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="589" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="590" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="591" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="592" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="593" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="594" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="595" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="596" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="597" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="598" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="599" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="600" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="601" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="602" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="603" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="604" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="605" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="606" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="607" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="608" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="609" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="610" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="611" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="612" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="613" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="614" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="615" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="616" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="617" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="618" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="619" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="620" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="621" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="622" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="623" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="624" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="625" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="626" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="627" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="628" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="629" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="630" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="631" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="632" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="633" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="634" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="635" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="636" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="637" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="638" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="639" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="640" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="641" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="642" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="643" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="644" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="645" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="646" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="647" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="648" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="649" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="650" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="651" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="652" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="653" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="654" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="655" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="656" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="657" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="658" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="659" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="660" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="661" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="662" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="663" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="664" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="665" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="666" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="667" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="668" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="669" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="670" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="671" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="672" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="673" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="674" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="675" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="676" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="677" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="678" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="679" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="680" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="681" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="682" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="683" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="684" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="685" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="686" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="687" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="688" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="689" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="690" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="691" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="692" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="693" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="694" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="695" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="696" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="697" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="698" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="699" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="700" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="701" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="702" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="703" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="704" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="705" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="706" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="707" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="708" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="709" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="710" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="711" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="712" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="713" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="714" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="715" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="716" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="717" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="718" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="719" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="720" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="721" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="722" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="723" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="724" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="725" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="726" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="727" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="728" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="729" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="730" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="731" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="732" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="733" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="734" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="735" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="736" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="737" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="738" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="739" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="740" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="741" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/elevation_power_plot_template.xlsx
+++ b/elevation_power_plot_template.xlsx
@@ -1935,11 +1935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228058480"/>
-        <c:axId val="228058872"/>
+        <c:axId val="595620040"/>
+        <c:axId val="595624352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228058480"/>
+        <c:axId val="595620040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,15 +2052,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228058872"/>
+        <c:crossAx val="595624352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228058872"/>
+        <c:axId val="595624352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-15"/>
+          <c:min val="-30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2171,7 +2171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228058480"/>
+        <c:crossAx val="595620040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2463,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228055736"/>
-        <c:axId val="228056128"/>
+        <c:axId val="595622000"/>
+        <c:axId val="595620824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228055736"/>
+        <c:axId val="595622000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,12 +2580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228056128"/>
+        <c:crossAx val="595620824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228056128"/>
+        <c:axId val="595620824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228055736"/>
+        <c:crossAx val="595622000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2792,7 +2792,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2912,11 +2911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230379864"/>
-        <c:axId val="230376728"/>
+        <c:axId val="596873032"/>
+        <c:axId val="596873816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230379864"/>
+        <c:axId val="596873032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2964,7 +2963,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3031,12 +3029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230376728"/>
+        <c:crossAx val="596873816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230376728"/>
+        <c:axId val="596873816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3080,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3149,7 +3146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230379864"/>
+        <c:crossAx val="596873032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/elevation_power_plot_template.xlsx
+++ b/elevation_power_plot_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$772</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1500</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$1</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!#REF!</definedName>
@@ -715,10 +715,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$772</c:f>
+              <c:f>Sheet1!$B$2:$B$1500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="771"/>
+                <c:ptCount val="1499"/>
                 <c:pt idx="0">
                   <c:v>-80</c:v>
                 </c:pt>
@@ -1321,10 +1321,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$772</c:f>
+              <c:f>Sheet1!$E$2:$E$1500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="771"/>
+                <c:ptCount val="1499"/>
                 <c:pt idx="0">
                   <c:v>1.75</c:v>
                 </c:pt>
@@ -1935,11 +1935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="595620040"/>
-        <c:axId val="595624352"/>
+        <c:axId val="226095664"/>
+        <c:axId val="226089392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="595620040"/>
+        <c:axId val="226095664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,12 +2052,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595624352"/>
+        <c:crossAx val="226089392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595624352"/>
+        <c:axId val="226089392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30"/>
@@ -2171,7 +2171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595620040"/>
+        <c:crossAx val="226095664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2329,10 +2329,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$741</c:f>
+              <c:f>Sheet2!$B$2:$B$1500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="777"/>
                 <c:pt idx="0">
                   <c:v>-80</c:v>
                 </c:pt>
@@ -2392,10 +2392,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$741</c:f>
+              <c:f>Sheet2!$E$2:$E$1500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="777"/>
                 <c:pt idx="0">
                   <c:v>-22.49</c:v>
                 </c:pt>
@@ -2463,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="595622000"/>
-        <c:axId val="595620824"/>
+        <c:axId val="226090960"/>
+        <c:axId val="226091352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="595622000"/>
+        <c:axId val="226090960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,12 +2580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595620824"/>
+        <c:crossAx val="226091352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595620824"/>
+        <c:axId val="226091352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595622000"/>
+        <c:crossAx val="226090960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2792,6 +2792,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2911,11 +2912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="596873032"/>
-        <c:axId val="596873816"/>
+        <c:axId val="226092528"/>
+        <c:axId val="226093704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="596873032"/>
+        <c:axId val="226092528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2963,6 +2964,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3029,12 +3031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596873816"/>
+        <c:crossAx val="226093704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="596873816"/>
+        <c:axId val="226093704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,6 +3082,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3146,7 +3149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596873032"/>
+        <c:crossAx val="226092528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5151,8 +5154,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E772" totalsRowShown="0">
-  <autoFilter ref="A1:E772"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1500" totalsRowShown="0">
+  <autoFilter ref="A1:E1500"/>
   <tableColumns count="5">
     <tableColumn id="1" name="azimuth"/>
     <tableColumn id="2" name="elevation"/>
@@ -5165,8 +5168,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E741" totalsRowShown="0">
-  <autoFilter ref="A1:E741">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E1500" totalsRowShown="0">
+  <autoFilter ref="A1:E1500">
     <filterColumn colId="2">
       <filters>
         <filter val="69"/>
@@ -5449,7 +5452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
@@ -8878,8 +8881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E741"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P559" sqref="P559"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12832,14 +12835,15 @@
     <row r="741" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/elevation_power_plot_template.xlsx
+++ b/elevation_power_plot_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$3000</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$1</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!#REF!</definedName>
@@ -715,10 +715,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$1500</c:f>
+              <c:f>Sheet1!$B$2:$B$3000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1499"/>
+                <c:ptCount val="2999"/>
                 <c:pt idx="0">
                   <c:v>-80</c:v>
                 </c:pt>
@@ -1321,10 +1321,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$1500</c:f>
+              <c:f>Sheet1!$E$2:$E$3000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1499"/>
+                <c:ptCount val="2999"/>
                 <c:pt idx="0">
                   <c:v>1.75</c:v>
                 </c:pt>
@@ -1935,11 +1935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226095664"/>
-        <c:axId val="226089392"/>
+        <c:axId val="186113024"/>
+        <c:axId val="186114592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226095664"/>
+        <c:axId val="186113024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,12 +2052,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226089392"/>
+        <c:crossAx val="186114592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226089392"/>
+        <c:axId val="186114592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30"/>
@@ -2171,7 +2171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226095664"/>
+        <c:crossAx val="186113024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2329,10 +2329,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$1500</c:f>
+              <c:f>Sheet2!$B$2:$B$3000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="777"/>
+                <c:ptCount val="2277"/>
                 <c:pt idx="0">
                   <c:v>-80</c:v>
                 </c:pt>
@@ -2392,10 +2392,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$1500</c:f>
+              <c:f>Sheet2!$E$2:$E$3000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="777"/>
+                <c:ptCount val="2277"/>
                 <c:pt idx="0">
                   <c:v>-22.49</c:v>
                 </c:pt>
@@ -2463,11 +2463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226090960"/>
-        <c:axId val="226091352"/>
+        <c:axId val="186112632"/>
+        <c:axId val="186109496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226090960"/>
+        <c:axId val="186112632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,12 +2580,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226091352"/>
+        <c:crossAx val="186109496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226091352"/>
+        <c:axId val="186109496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226090960"/>
+        <c:crossAx val="186112632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2792,7 +2792,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2912,11 +2911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226092528"/>
-        <c:axId val="226093704"/>
+        <c:axId val="186111064"/>
+        <c:axId val="186111456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226092528"/>
+        <c:axId val="186111064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2964,7 +2963,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3031,12 +3029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226093704"/>
+        <c:crossAx val="186111456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226093704"/>
+        <c:axId val="186111456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3080,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3149,7 +3146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226092528"/>
+        <c:crossAx val="186111064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5154,8 +5151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1500" totalsRowShown="0">
-  <autoFilter ref="A1:E1500"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E3000" totalsRowShown="0">
+  <autoFilter ref="A1:E3000"/>
   <tableColumns count="5">
     <tableColumn id="1" name="azimuth"/>
     <tableColumn id="2" name="elevation"/>
@@ -5168,8 +5165,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E1500" totalsRowShown="0">
-  <autoFilter ref="A1:E1500">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E3000" totalsRowShown="0">
+  <autoFilter ref="A1:E3000">
     <filterColumn colId="2">
       <filters>
         <filter val="69"/>
@@ -5452,8 +5449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8863,14 +8860,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -8881,8 +8879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E741"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
